--- a/biology/Histoire de la zoologie et de la botanique/Claude_Jourdan/Claude_Jourdan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Jourdan/Claude_Jourdan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Jourdan, né le 18 juin 1803 à Heyrieux et mort à Lyon le 12 février 1873, est un médecin, zoologiste et paléontologue français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Jourdan, né dans une famille pauvre, commence tardivement ses études en médecine[1]. À Montpellier, il suit les cours de Victor Prunelle dont il devient le secrétaire[1]. Prunelle, suspecté de bonapartisme, est révoqué de ses fonctions en 1819 et retourne à Lyon, où il devient député de l'Isère puis maire de Lyon en 1830. Il obtient alors à Jourdan le poste de conservateur du musée d'histoire naturelle en 1832, puis celui de professeur d'anatomie comparée à l'École des beaux-arts de Lyon et finalement la chaire en zoologie de la faculté des sciences de l'université de Lyon à sa création en 1834[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Jourdan, né dans une famille pauvre, commence tardivement ses études en médecine. À Montpellier, il suit les cours de Victor Prunelle dont il devient le secrétaire. Prunelle, suspecté de bonapartisme, est révoqué de ses fonctions en 1819 et retourne à Lyon, où il devient député de l'Isère puis maire de Lyon en 1830. Il obtient alors à Jourdan le poste de conservateur du musée d'histoire naturelle en 1832, puis celui de professeur d'anatomie comparée à l'École des beaux-arts de Lyon et finalement la chaire en zoologie de la faculté des sciences de l'université de Lyon à sa création en 1834,.
 En 1835, il est élu membre titulaire à la section Sciences de l'académie des Sciences, Belles-Lettres et Arts de Lyon.
 Claude Jourdan meurt le 12 février 1873 à Lyon.
 </t>
@@ -544,9 +558,11 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 28 octobre 1859, Jourdan découvre le « Mammouth de Choulans » lors d'un chantier[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 28 octobre 1859, Jourdan découvre le « Mammouth de Choulans » lors d'un chantier.
 Il a identifié et nommé les genres suivants : Hemigalus, Mammuthus intermedius, Acerodon, Macropus irma, Nelomys, Nelomys blainvilii, Paradoxurus hermaphroditus philippinensis, Phyllomys blainvilii, Phyllomys blainvillii, Avahi, Microrhynchus, Anemonactis mazeli (sv), Stephanocyathus crassus, Vaughanella margaritata.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jourdan est membre de l'académie d'agriculture de France[1] et entre au conseil général du Rhône. Il est également fait officier de la Légion d'honneur le 9 juin 1865[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jourdan est membre de l'académie d'agriculture de France et entre au conseil général du Rhône. Il est également fait officier de la Légion d'honneur le 9 juin 1865.
 </t>
         </is>
       </c>
